--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/Smith/teaching/SDS-CSC235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CSC235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB76118-7A22-4D46-B708-3CCEDBCA19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD77764-09FC-FD4F-BC85-67FA107C6FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="24900" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -91,15 +91,9 @@
     <t>What is Visual Analytics?</t>
   </si>
   <si>
-    <t>Exploratory Data Analysis</t>
-  </si>
-  <si>
     <t>Interaction Science</t>
   </si>
   <si>
-    <t>Intro to HTML / CSS / JS</t>
-  </si>
-  <si>
     <t>Interactive Visualizations (d3.js)</t>
   </si>
   <si>
@@ -113,6 +107,84 @@
   </si>
   <si>
     <t>Network Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to HTML / CSS / JS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flex day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating Uncertainty </t>
+  </si>
+  <si>
+    <t>Uncertainty Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with Databases / APIs </t>
+  </si>
+  <si>
+    <t>Big Data Lab</t>
+  </si>
+  <si>
+    <t>fp04</t>
+  </si>
+  <si>
+    <t>fp03</t>
+  </si>
+  <si>
+    <t>fp02</t>
+  </si>
+  <si>
+    <t>fp01</t>
+  </si>
+  <si>
+    <t>Final Project Workshop - Proposal Check-in</t>
+  </si>
+  <si>
+    <t>Final Project Workshop - Prototype Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Workshop - User Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explainable AI / ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explainable AI / ML Lab </t>
+  </si>
+  <si>
+    <t>EMA Lab</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis (EDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploratory Model Analysis (EMA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Introduction </t>
+  </si>
+  <si>
+    <t>hwCatchUp</t>
+  </si>
+  <si>
+    <t>hw01</t>
+  </si>
+  <si>
+    <t>hw02</t>
+  </si>
+  <si>
+    <t>hw03</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>hw04</t>
+  </si>
+  <si>
+    <t>hw05</t>
   </si>
 </sst>
 </file>
@@ -284,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -322,42 +394,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,7 +429,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +656,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -633,152 +695,170 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="25">
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="29">
+      <c r="D2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="26">
         <v>45684</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="34">
+      <c r="C3" s="50"/>
+      <c r="D3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="29">
         <v>45686</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="G3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="25">
+      <c r="C4" s="48">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26">
         <v>45691</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="C5" s="50"/>
+      <c r="D5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="29">
         <v>45693</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="25">
+      <c r="C6" s="48">
         <v>3</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="26">
         <v>45698</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="C7" s="50"/>
+      <c r="D7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29">
         <v>45700</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="25">
+      <c r="C8" s="48">
         <v>4</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="26">
         <v>45705</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="C9" s="50"/>
+      <c r="D9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29">
         <v>45707</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="38"/>
+      <c r="F9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="25">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="C10" s="48">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26">
         <v>45712</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
@@ -787,81 +867,93 @@
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="C11" s="50"/>
+      <c r="D11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="38">
         <v>45714</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="25">
+      <c r="C12" s="48">
         <v>6</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="D12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="26">
         <v>45719</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="F12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="C13" s="50"/>
+      <c r="D13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29">
         <v>45721</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="25">
+      <c r="C14" s="48">
         <v>7</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="26">
         <v>45726</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="C15" s="50"/>
+      <c r="D15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29">
         <v>45728</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
@@ -870,20 +962,20 @@
       <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="48">
         <v>8</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="56">
+      <c r="D16" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="44">
         <v>45733</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -892,186 +984,238 @@
       <c r="B17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="C17" s="50"/>
+      <c r="D17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="38">
         <v>45735</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="25">
+      <c r="C18" s="48">
         <v>9</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="26">
         <v>45740</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="F18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="43">
+      <c r="C19" s="49"/>
+      <c r="D19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="35">
         <v>45742</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="F19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="25">
+      <c r="C20" s="48">
         <v>10</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="29">
+      <c r="D20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="26">
         <v>45747</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="43">
+      <c r="B21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="35">
         <v>45749</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="F21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="25">
-        <v>11</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="29">
+      <c r="C22" s="48">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="26">
         <v>45754</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="F22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="41">
         <v>45756</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="F23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="25">
-        <v>12</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="C24" s="48">
+        <v>12</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26">
         <v>45761</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="32"/>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="43">
+      <c r="B25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="41">
         <v>45763</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="F25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="25">
+      <c r="C26" s="48">
         <v>13</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26">
         <v>45768</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="41"/>
+      <c r="F26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="43">
+      <c r="B27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="41">
         <v>45770</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="F27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="25">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="48">
         <v>14</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="D28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="26">
         <v>45775</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -1080,33 +1224,35 @@
       <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="53">
+      <c r="C29" s="49"/>
+      <c r="D29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="41">
         <v>45777</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="41"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="27"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="18"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1115,6 +1261,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1124,12 +1276,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Smith/teaching/SDS-CSC235/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amosca/Documents/Smith/teaching/SDS-CSC235/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD77764-09FC-FD4F-BC85-67FA107C6FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F0558-BB6A-F240-8835-AFFF24B0B001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="24900" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25300" windowHeight="22860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -115,12 +115,6 @@
     <t xml:space="preserve">flex day </t>
   </si>
   <si>
-    <t xml:space="preserve">Communicating Uncertainty </t>
-  </si>
-  <si>
-    <t>Uncertainty Lab</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working with Databases / APIs </t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>hw05</t>
+  </si>
+  <si>
+    <t>Uncertainty and Bias Lab</t>
+  </si>
+  <si>
+    <t>Communicating Uncertainty and Bias</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -713,7 +713,7 @@
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="50"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="30"/>
     </row>
@@ -741,7 +741,7 @@
         <v>45691</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="33"/>
@@ -749,7 +749,7 @@
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
@@ -760,10 +760,10 @@
         <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -786,7 +786,7 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="28" t="s">
         <v>12</v>
       </c>
@@ -797,10 +797,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -823,7 +823,7 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="28" t="s">
         <v>12</v>
       </c>
@@ -834,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -867,7 +867,7 @@
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="37" t="s">
         <v>12</v>
       </c>
@@ -877,8 +877,12 @@
       <c r="F11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -900,7 +904,7 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="28" t="s">
         <v>12</v>
       </c>
@@ -910,12 +914,8 @@
       <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
@@ -930,7 +930,7 @@
         <v>45726</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="27"/>
@@ -938,7 +938,7 @@
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="28" t="s">
         <v>12</v>
       </c>
@@ -946,13 +946,13 @@
         <v>45728</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -984,7 +984,7 @@
       <c r="B17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>45740</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="27"/>
@@ -1018,7 +1018,7 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="34" t="s">
         <v>12</v>
       </c>
@@ -1026,13 +1026,13 @@
         <v>45742</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
     </row>
@@ -1049,7 +1049,7 @@
         <v>45747</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="27"/>
@@ -1060,7 +1060,7 @@
       <c r="B21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="34" t="s">
         <v>12</v>
       </c>
@@ -1068,13 +1068,13 @@
         <v>45749</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1090,7 +1090,7 @@
         <v>45754</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="27"/>
@@ -1100,7 +1100,7 @@
       <c r="B23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="40" t="s">
         <v>12</v>
       </c>
@@ -1108,13 +1108,13 @@
         <v>45756</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1130,7 +1130,7 @@
         <v>45761</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="27"/>
@@ -1140,7 +1140,7 @@
       <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="40" t="s">
         <v>12</v>
       </c>
@@ -1148,13 +1148,13 @@
         <v>45763</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1170,7 +1170,7 @@
         <v>45768</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="33"/>
@@ -1180,7 +1180,7 @@
       <c r="B27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="40" t="s">
         <v>12</v>
       </c>
@@ -1188,13 +1188,13 @@
         <v>45770</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1224,7 +1224,7 @@
       <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="40" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="18"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1261,12 +1261,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1276,6 +1270,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
